--- a/_RESULTS/Error_budget/error_budget_area2b.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2b.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2244565714453557</v>
+        <v>0.2243547119039355</v>
       </c>
       <c r="E2" t="n">
         <v>4.205123559202119</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36957190579717</v>
+        <v>0.3695605798760069</v>
       </c>
       <c r="E3" t="n">
         <v>4.128053611064852</v>
